--- a/Customer Data.xlsx
+++ b/Customer Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vihit\PycharmProjects\Sitte 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vihit\PycharmProjects\site2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCE716D-F63C-44EB-ABEB-7576BAC33783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46EC723-2D4F-493A-888C-7D6D658EF7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,7 +390,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
